--- a/data/trans_orig/CONTINENTE_NAC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONTINENTE_NAC-Clase-trans_orig.xlsx
@@ -1874,12 +1874,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2782,97 +2782,97 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>338</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3058,12 +3058,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -4598,97 +4598,97 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K38" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="N38" s="2" t="inlineStr">
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O38" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -5521,12 +5521,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -7451,12 +7451,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -7466,12 +7466,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -7564,12 +7564,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -7579,12 +7579,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -7677,12 +7677,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7692,12 +7692,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -8472,12 +8472,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -8487,12 +8487,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -8620,12 +8620,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8635,12 +8635,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -9380,97 +9380,97 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>1005</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>1003</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -10288,97 +10288,97 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>1020</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>1091</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>1055</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11196,97 +11196,97 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>1105</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>0,73%</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K38" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
-      </c>
-      <c r="N38" s="2" t="inlineStr">
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O38" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11309,97 +11309,97 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>1105</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>0,73%</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K39" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
-      </c>
-      <c r="N39" s="2" t="inlineStr">
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O39" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
-      </c>
-      <c r="U39" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11991,12 +11991,12 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -12006,12 +12006,12 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
@@ -12104,97 +12104,97 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>1163</t>
-        </is>
-      </c>
-      <c r="N46" s="2" t="inlineStr">
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>1177</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12217,97 +12217,97 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K47" s="2" t="inlineStr">
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L47" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M47" s="2" t="inlineStr">
-        <is>
-          <t>1163</t>
-        </is>
-      </c>
-      <c r="N47" s="2" t="inlineStr">
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U47" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O47" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R47" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S47" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T47" s="2" t="inlineStr">
-        <is>
-          <t>1177</t>
-        </is>
-      </c>
-      <c r="U47" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12330,97 +12330,97 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K48" s="2" t="inlineStr">
+      <c r="R48" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="inlineStr">
-        <is>
-          <t>1163</t>
-        </is>
-      </c>
-      <c r="N48" s="2" t="inlineStr">
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O48" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T48" s="2" t="inlineStr">
-        <is>
-          <t>1177</t>
-        </is>
-      </c>
-      <c r="U48" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12443,97 +12443,97 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K49" s="2" t="inlineStr">
+      <c r="R49" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M49" s="2" t="inlineStr">
-        <is>
-          <t>1163</t>
-        </is>
-      </c>
-      <c r="N49" s="2" t="inlineStr">
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U49" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O49" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="inlineStr">
-        <is>
-          <t>1177</t>
-        </is>
-      </c>
-      <c r="U49" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13012,12 +13012,12 @@
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -13027,12 +13027,12 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
@@ -15900,12 +15900,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -15915,12 +15915,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -15978,97 +15978,97 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>883</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>792</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>849</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -16886,12 +16886,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -16901,12 +16901,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -18702,97 +18702,97 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>770</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="N46" s="2" t="inlineStr">
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>776</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONTINENTE_NAC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONTINENTE_NAC-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en País Vasco</t>
+          <t>Continente de nacimiento en País Vasco (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7143,7 +7143,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en C.Valenciana</t>
+          <t>Continente de nacimiento en C.Valenciana (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13741,7 +13741,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en Barcelona</t>
+          <t>Continente de nacimiento en Barcelona (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONTINENTE_NAC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONTINENTE_NAC-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>2486</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1741</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5044</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3265</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>2438</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5332</t>
+          <t>6108</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>6256</t>
+          <t>6428</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>4358</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>9043</t>
+          <t>9158</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>844</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>529</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>2504</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>717</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>2977</t>
+          <t>2791</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>327</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>769</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>157</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>330</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -1074,22 +1074,22 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>510</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>141</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1415</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>349</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1144,32 +1144,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>859</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>327</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>286</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1197,12 +1197,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>167</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1257,22 +1257,22 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>453</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>101</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -1300,32 +1300,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4861</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6374</t>
+          <t>7358</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6883</t>
+          <t>7580</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1370,27 +1370,27 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>8609</t>
+          <t>10111</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>7273</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>11690</t>
+          <t>13400</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
@@ -1413,32 +1413,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>137076</t>
+          <t>153968</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>134204</t>
+          <t>150911</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>139466</t>
+          <t>156332</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1448,32 +1448,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>132871</t>
+          <t>156933</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>130005</t>
+          <t>153552</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>135498</t>
+          <t>159876</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1483,32 +1483,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>269948</t>
+          <t>310900</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>265895</t>
+          <t>306611</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>273568</t>
+          <t>315010</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>95,1%</t>
         </is>
       </c>
     </row>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>145490</t>
+          <t>162603</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145490</t>
+          <t>162603</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>145490</t>
+          <t>162603</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1561,17 +1561,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>142942</t>
+          <t>168629</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>142942</t>
+          <t>168629</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>142942</t>
+          <t>168629</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>288433</t>
+          <t>331232</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>288433</t>
+          <t>331232</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>288433</t>
+          <t>331232</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1643,32 +1643,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>823</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>248</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2984</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1678,32 +1678,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1832</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>4861</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1713,32 +1713,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>2227</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>6034</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>182</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>676</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>230</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1826,32 +1826,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>412</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>105</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2203</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,7%</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>258</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1492</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>258</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
@@ -1949,12 +1949,12 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1992,12 +1992,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>711</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>253</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -2027,12 +2027,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>397</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
@@ -2062,12 +2062,12 @@
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>1407</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>309</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>178</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>774</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2165,32 +2165,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>487</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>122</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2218,92 +2218,92 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>755</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>2561</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
           <t>0,22%</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>1650</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>1,51%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>950</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>419</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>2189</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -2321,32 +2321,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>79022</t>
+          <t>88549</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>77110</t>
+          <t>87238</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>80001</t>
+          <t>89352</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2356,32 +2356,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>105814</t>
+          <t>118133</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>103919</t>
+          <t>115709</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>106999</t>
+          <t>119693</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2391,32 +2391,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>184837</t>
+          <t>206682</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>182402</t>
+          <t>203848</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>186529</t>
+          <t>208552</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>97,92%</t>
         </is>
       </c>
     </row>
@@ -2434,17 +2434,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>81075</t>
+          <t>90164</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>81075</t>
+          <t>90164</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>81075</t>
+          <t>90164</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2469,17 +2469,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>109234</t>
+          <t>122808</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>109234</t>
+          <t>122808</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>109234</t>
+          <t>122808</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2504,17 +2504,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>190310</t>
+          <t>212972</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>190310</t>
+          <t>212972</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>190310</t>
+          <t>212972</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2551,32 +2551,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>6511</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3946</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8458</t>
+          <t>9036</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2586,32 +2586,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>5689</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2621,32 +2621,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>8767</t>
+          <t>10061</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>6596</t>
+          <t>7365</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>11911</t>
+          <t>13461</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -2664,32 +2664,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>943</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>343</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2476</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>466</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2734,32 +2734,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>624</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>3084</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>356</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>368</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -2935,12 +2935,12 @@
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2960,32 +2960,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>724</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>222</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,94%</t>
         </is>
       </c>
     </row>
@@ -3003,32 +3003,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5184</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3073,32 +3073,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>5394</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -3116,32 +3116,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3590</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2212</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5622</t>
+          <t>4782</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3151,32 +3151,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>856</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>273</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>2127</t>
+          <t>2264</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3186,32 +3186,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>2969</t>
+          <t>2471</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -3229,32 +3229,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>149769</t>
+          <t>140478</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>146152</t>
+          <t>137043</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>152659</t>
+          <t>143461</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>89,09%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3264,32 +3264,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>58677</t>
+          <t>56767</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>56453</t>
+          <t>54360</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>60313</t>
+          <t>58558</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>87,67%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3299,32 +3299,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>208446</t>
+          <t>197244</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>203793</t>
+          <t>193308</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>211880</t>
+          <t>200732</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>93,01%</t>
         </is>
       </c>
     </row>
@@ -3342,17 +3342,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>163696</t>
+          <t>153817</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>163696</t>
+          <t>153817</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>163696</t>
+          <t>153817</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3377,17 +3377,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>63291</t>
+          <t>62007</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>63291</t>
+          <t>62007</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>63291</t>
+          <t>62007</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3412,17 +3412,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>226987</t>
+          <t>215824</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>226987</t>
+          <t>215824</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>226987</t>
+          <t>215824</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3459,32 +3459,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>10834</t>
+          <t>13037</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8170</t>
+          <t>9641</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>14365</t>
+          <t>16352</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3494,32 +3494,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>11899</t>
+          <t>15328</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>9471</t>
+          <t>12251</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>15117</t>
+          <t>18894</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3529,32 +3529,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>22733</t>
+          <t>28365</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>19338</t>
+          <t>23842</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>27324</t>
+          <t>33551</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -3572,32 +3572,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3609</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3607,32 +3607,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7711</t>
+          <t>8388</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>6272</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>10654</t>
+          <t>11079</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3642,32 +3642,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>9723</t>
+          <t>10917</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>7205</t>
+          <t>8132</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>12720</t>
+          <t>13973</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>281</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -3695,12 +3695,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>1410</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>327</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
@@ -3730,12 +3730,12 @@
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1811</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>609</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
@@ -3765,12 +3765,12 @@
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>1576</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -3798,32 +3798,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>2368</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3833,32 +3833,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>888</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>225</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3868,32 +3868,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>5694</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,61%</t>
         </is>
       </c>
     </row>
@@ -3911,32 +3911,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>5180</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>3548</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>7698</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3946,22 +3946,22 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1837</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>3315</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3981,32 +3981,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>7017</t>
+          <t>6662</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>4974</t>
+          <t>4714</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>9541</t>
+          <t>9277</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -4024,32 +4024,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2313</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>6080</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4059,32 +4059,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>2214</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>3143</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4094,32 +4094,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>5595</t>
+          <t>6058</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>7811</t>
+          <t>8692</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,46%</t>
         </is>
       </c>
     </row>
@@ -4137,32 +4137,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>145986</t>
+          <t>143667</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>141771</t>
+          <t>139115</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>149664</t>
+          <t>148217</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>81,69%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>87,04%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4172,32 +4172,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>154466</t>
+          <t>153973</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>150230</t>
+          <t>149362</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>158218</t>
+          <t>158150</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>86,62%</t>
+          <t>84,04%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>88,72%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4207,32 +4207,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>300453</t>
+          <t>297640</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>294422</t>
+          <t>290845</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>305636</t>
+          <t>303275</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>84,2%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>82,27%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>85,79%</t>
         </is>
       </c>
     </row>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>169294</t>
+          <t>170286</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>169294</t>
+          <t>170286</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>169294</t>
+          <t>170286</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4285,17 +4285,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>178325</t>
+          <t>183222</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>178325</t>
+          <t>183222</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>178325</t>
+          <t>183222</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4320,17 +4320,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>347619</t>
+          <t>353508</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>347619</t>
+          <t>353508</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>347619</t>
+          <t>353508</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4367,32 +4367,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>4068</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>2424</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>6248</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4402,32 +4402,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>14678</t>
+          <t>17268</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>11382</t>
+          <t>13913</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>18219</t>
+          <t>21022</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4437,32 +4437,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>18747</t>
+          <t>21807</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>15285</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>22843</t>
+          <t>26208</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>13,17%</t>
         </is>
       </c>
     </row>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>302</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -4490,12 +4490,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4515,32 +4515,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3330</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>5539</t>
+          <t>4889</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4550,32 +4550,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>3582</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>2184</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>5769</t>
+          <t>5288</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -4706,32 +4706,32 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>528</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>2959</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4741,32 +4741,32 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>760</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>245</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>2157</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>2247</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -4819,32 +4819,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>3423</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>5372</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4854,32 +4854,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>4243</t>
+          <t>3548</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>2735</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>6343</t>
+          <t>5554</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4889,32 +4889,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>7667</t>
+          <t>6708</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>5445</t>
+          <t>4775</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>10502</t>
+          <t>9133</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -4932,32 +4932,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4967,32 +4967,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>1763</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>4757</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5002,32 +5002,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>4899</t>
+          <t>4961</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>7103</t>
+          <t>7207</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -5045,32 +5045,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>66056</t>
+          <t>62936</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>63044</t>
+          <t>59728</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>68584</t>
+          <t>65555</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>86,48%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>82,53%</t>
+          <t>80,41%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5080,32 +5080,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>106529</t>
+          <t>97046</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>102033</t>
+          <t>92919</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>110561</t>
+          <t>101213</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>80,54%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>77,14%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>81,19%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5115,32 +5115,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>172584</t>
+          <t>159983</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>167640</t>
+          <t>154272</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>177281</t>
+          <t>164570</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>80,42%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>80,34%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>84,96%</t>
+          <t>82,72%</t>
         </is>
       </c>
     </row>
@@ -5158,17 +5158,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>76385</t>
+          <t>74275</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>76385</t>
+          <t>74275</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>76385</t>
+          <t>74275</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5193,17 +5193,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>132276</t>
+          <t>124662</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>132276</t>
+          <t>124662</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>132276</t>
+          <t>124662</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5228,17 +5228,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>208660</t>
+          <t>198938</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>208660</t>
+          <t>198938</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>208660</t>
+          <t>198938</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5275,102 +5275,102 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>4642</t>
+          <t>5754</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>4142</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>2598</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>6531</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>7749</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>10688</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
           <t>5,95%</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>3,28%</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>10,18%</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>2708</t>
-        </is>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>1633</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="inlineStr">
-        <is>
-          <t>4634</t>
-        </is>
-      </c>
-      <c r="N44" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="O44" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>5422</t>
-        </is>
-      </c>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>3879</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>7980</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
-      <c r="V44" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="W44" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -5388,32 +5388,32 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>473</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>2772</t>
+          <t>2796</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
@@ -5423,32 +5423,32 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>512</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>2622</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
@@ -5458,32 +5458,32 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>2162</t>
+          <t>2412</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>4117</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="V45" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W45" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>327</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="O46" s="2" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>327</t>
         </is>
       </c>
       <c r="S46" s="2" t="inlineStr">
@@ -5581,12 +5581,12 @@
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="V46" s="2" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -5614,32 +5614,32 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>1274</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>444</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5649,32 +5649,32 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>535</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>3006</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -5684,32 +5684,32 @@
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>4547</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -5727,32 +5727,32 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>2854</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -5762,32 +5762,32 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>3390</t>
+          <t>3152</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>4837</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -5797,32 +5797,32 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>3553</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>7161</t>
+          <t>7615</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -5840,32 +5840,32 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1376</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>628</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -5875,32 +5875,32 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>820</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>276</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>2158</t>
+          <t>2074</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -5910,32 +5910,32 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>2196</t>
         </is>
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>3627</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -5953,32 +5953,32 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>38622</t>
+          <t>46532</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>36115</t>
+          <t>43155</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>40645</t>
+          <t>49067</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>79,17%</t>
+          <t>77,0%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -5988,32 +5988,32 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>108712</t>
+          <t>112459</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>105706</t>
+          <t>109349</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>111032</t>
+          <t>114929</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -6023,32 +6023,32 @@
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>147334</t>
+          <t>158991</t>
         </is>
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>143396</t>
+          <t>154843</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>149986</t>
+          <t>162921</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>86,25%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>90,75%</t>
         </is>
       </c>
     </row>
@@ -6066,17 +6066,17 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>45614</t>
+          <t>56044</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>45614</t>
+          <t>56044</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>45614</t>
+          <t>56044</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -6101,17 +6101,17 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>118293</t>
+          <t>123493</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>118293</t>
+          <t>123493</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>118293</t>
+          <t>123493</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -6136,17 +6136,17 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>163907</t>
+          <t>179537</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>163907</t>
+          <t>179537</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>163907</t>
+          <t>179537</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -6183,32 +6183,32 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>27761</t>
+          <t>31003</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>23196</t>
+          <t>26361</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>33084</t>
+          <t>36515</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr">
@@ -6218,32 +6218,32 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>37263</t>
+          <t>47068</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>32171</t>
+          <t>40892</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>42444</t>
+          <t>53005</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="O52" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
@@ -6253,32 +6253,32 @@
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>65024</t>
+          <t>78071</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
         <is>
-          <t>57816</t>
+          <t>70375</t>
         </is>
       </c>
       <c r="T52" s="2" t="inlineStr">
         <is>
-          <t>72292</t>
+          <t>86779</t>
         </is>
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="V52" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="W52" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -6296,32 +6296,32 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>5275</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>2898</t>
+          <t>3286</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>6806</t>
+          <t>7790</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
@@ -6331,32 +6331,32 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>14445</t>
+          <t>14583</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>11381</t>
+          <t>11347</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>18447</t>
+          <t>18078</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="O53" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
@@ -6366,32 +6366,32 @@
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
-          <t>19039</t>
+          <t>19858</t>
         </is>
       </c>
       <c r="S53" s="2" t="inlineStr">
         <is>
-          <t>15648</t>
+          <t>16289</t>
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr">
         <is>
-          <t>22985</t>
+          <t>24338</t>
         </is>
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="V53" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="W53" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,63%</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>609</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
@@ -6419,92 +6419,92 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>2143</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>1681</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>3681</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="U54" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="V54" s="2" t="inlineStr">
+        <is>
           <t>0,06%</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>1005</t>
-        </is>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="inlineStr">
-        <is>
-          <t>2357</t>
-        </is>
-      </c>
-      <c r="N54" s="2" t="inlineStr">
-        <is>
-          <t>0,14%</t>
-        </is>
-      </c>
-      <c r="O54" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>0,32%</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="inlineStr">
-        <is>
-          <t>1416</t>
-        </is>
-      </c>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>636</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr">
-        <is>
-          <t>3187</t>
-        </is>
-      </c>
-      <c r="U54" s="2" t="inlineStr">
-        <is>
-          <t>0,1%</t>
-        </is>
-      </c>
-      <c r="V54" s="2" t="inlineStr">
-        <is>
-          <t>0,04%</t>
-        </is>
-      </c>
       <c r="W54" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,3%</t>
         </is>
       </c>
     </row>
@@ -6522,32 +6522,32 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>4024</t>
+          <t>6049</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>6067</t>
+          <t>8805</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr">
@@ -6557,32 +6557,32 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>2666</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>4331</t>
+          <t>6086</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="O55" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -6592,32 +6592,32 @@
       </c>
       <c r="R55" s="2" t="inlineStr">
         <is>
-          <t>6691</t>
+          <t>10003</t>
         </is>
       </c>
       <c r="S55" s="2" t="inlineStr">
         <is>
-          <t>4917</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="T55" s="2" t="inlineStr">
         <is>
-          <t>9099</t>
+          <t>13186</t>
         </is>
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="V55" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="W55" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -6635,32 +6635,32 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>13722</t>
+          <t>12946</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>10763</t>
+          <t>10012</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>17509</t>
+          <t>16252</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
@@ -6670,32 +6670,32 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>9754</t>
+          <t>9148</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>7186</t>
+          <t>6757</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>12584</t>
+          <t>11960</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="O56" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -6705,32 +6705,32 @@
       </c>
       <c r="R56" s="2" t="inlineStr">
         <is>
-          <t>23476</t>
+          <t>22094</t>
         </is>
       </c>
       <c r="S56" s="2" t="inlineStr">
         <is>
-          <t>19396</t>
+          <t>18248</t>
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr">
         <is>
-          <t>28062</t>
+          <t>26617</t>
         </is>
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="V56" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="W56" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -6748,59 +6748,59 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>14509</t>
+          <t>15177</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>11385</t>
+          <t>12114</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>18008</t>
+          <t>18793</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>13076</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>9928</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>16260</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
           <t>1,67%</t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>12159</t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>9427</t>
-        </is>
-      </c>
-      <c r="M57" s="2" t="inlineStr">
-        <is>
-          <t>15305</t>
-        </is>
-      </c>
-      <c r="N57" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
       <c r="O57" s="2" t="inlineStr">
         <is>
           <t>1,27%</t>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -6818,27 +6818,27 @@
       </c>
       <c r="R57" s="2" t="inlineStr">
         <is>
-          <t>26668</t>
+          <t>28253</t>
         </is>
       </c>
       <c r="S57" s="2" t="inlineStr">
         <is>
-          <t>22736</t>
+          <t>23863</t>
         </is>
       </c>
       <c r="T57" s="2" t="inlineStr">
         <is>
-          <t>31833</t>
+          <t>33343</t>
         </is>
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="V57" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W57" s="2" t="inlineStr">
@@ -6861,32 +6861,32 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>616532</t>
+          <t>636132</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>608934</t>
+          <t>628186</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>622790</t>
+          <t>643255</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
@@ -6896,32 +6896,32 @@
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>667069</t>
+          <t>695310</t>
         </is>
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>660353</t>
+          <t>687625</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>674514</t>
+          <t>703218</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>88,59%</t>
         </is>
       </c>
       <c r="O58" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>87,62%</t>
         </is>
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>89,6%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
@@ -6931,32 +6931,32 @@
       </c>
       <c r="R58" s="2" t="inlineStr">
         <is>
-          <t>1283602</t>
+          <t>1331441</t>
         </is>
       </c>
       <c r="S58" s="2" t="inlineStr">
         <is>
-          <t>1274049</t>
+          <t>1320071</t>
         </is>
       </c>
       <c r="T58" s="2" t="inlineStr">
         <is>
-          <t>1294267</t>
+          <t>1342039</t>
         </is>
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="V58" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="W58" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>89,95%</t>
         </is>
       </c>
     </row>
@@ -6974,17 +6974,17 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>681554</t>
+          <t>707191</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>681554</t>
+          <t>707191</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>681554</t>
+          <t>707191</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
@@ -7009,17 +7009,17 @@
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>744361</t>
+          <t>784820</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>744361</t>
+          <t>784820</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>744361</t>
+          <t>784820</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -7044,17 +7044,17 @@
       </c>
       <c r="R59" s="2" t="inlineStr">
         <is>
-          <t>1425916</t>
+          <t>1492010</t>
         </is>
       </c>
       <c r="S59" s="2" t="inlineStr">
         <is>
-          <t>1425916</t>
+          <t>1492010</t>
         </is>
       </c>
       <c r="T59" s="2" t="inlineStr">
         <is>
-          <t>1425916</t>
+          <t>1492010</t>
         </is>
       </c>
       <c r="U59" s="2" t="inlineStr">
@@ -13936,12 +13936,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9754</t>
+          <t>9659</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21762</t>
+          <t>21530</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -13951,12 +13951,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -13971,12 +13971,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11411</t>
+          <t>11469</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23326</t>
+          <t>24439</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -13986,12 +13986,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -14006,12 +14006,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>23889</t>
+          <t>24443</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40590</t>
+          <t>41458</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -14021,12 +14021,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,97%</t>
         </is>
       </c>
     </row>
@@ -14049,12 +14049,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>1840</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -14084,12 +14084,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>569</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3635</t>
+          <t>3958</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -14119,12 +14119,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>4671</t>
+          <t>4802</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -14162,12 +14162,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>287</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3768</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -14182,7 +14182,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -14197,12 +14197,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
@@ -14232,12 +14232,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>6212</t>
+          <t>6296</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -14247,12 +14247,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -14275,12 +14275,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7412</t>
+          <t>7565</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -14290,12 +14290,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -14310,12 +14310,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>833</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5781</t>
+          <t>7035</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -14330,7 +14330,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -14345,12 +14345,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>2857</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>10645</t>
+          <t>10648</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -14360,7 +14360,7 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
@@ -14393,7 +14393,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3971</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -14408,7 +14408,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -14423,12 +14423,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>123</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>5525</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -14458,12 +14458,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>746</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>6666</t>
+          <t>6135</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -14473,12 +14473,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -14501,12 +14501,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22249</t>
+          <t>22401</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37924</t>
+          <t>38469</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -14536,12 +14536,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17826</t>
+          <t>17961</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33174</t>
+          <t>33064</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -14551,12 +14551,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -14571,12 +14571,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>44295</t>
+          <t>43913</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>65856</t>
+          <t>67224</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -14586,12 +14586,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -14614,12 +14614,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>146802</t>
+          <t>146250</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>164424</t>
+          <t>164871</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -14629,12 +14629,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -14649,12 +14649,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>150600</t>
+          <t>150578</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>169230</t>
+          <t>169578</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -14664,12 +14664,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>71,69%</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>80,56%</t>
+          <t>80,73%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -14684,12 +14684,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>303809</t>
+          <t>302621</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>329643</t>
+          <t>329451</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -14699,12 +14699,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>73,08%</t>
+          <t>72,8%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>79,3%</t>
+          <t>79,25%</t>
         </is>
       </c>
     </row>
@@ -14844,12 +14844,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6754</t>
+          <t>6853</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17718</t>
+          <t>17975</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -14859,12 +14859,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -14879,12 +14879,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5277</t>
+          <t>5490</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>13597</t>
+          <t>14009</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -14894,12 +14894,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -14914,12 +14914,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>14408</t>
+          <t>14154</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>27864</t>
+          <t>27559</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -14929,12 +14929,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,37%</t>
         </is>
       </c>
     </row>
@@ -14962,7 +14962,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1744</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -14992,12 +14992,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>340</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3193</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -15007,12 +15007,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -15027,12 +15027,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>629</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>3809</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -15042,12 +15042,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>929</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -15105,12 +15105,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>888</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>7615</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -15125,7 +15125,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -15140,12 +15140,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>915</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>7926</t>
+          <t>7950</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -15155,7 +15155,7 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
@@ -15188,7 +15188,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>6428</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -15218,12 +15218,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>268</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6044</t>
+          <t>6114</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -15233,12 +15233,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -15253,12 +15253,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>892</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>8402</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -15268,12 +15268,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -15301,7 +15301,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -15316,7 +15316,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -15336,7 +15336,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>912</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>2977</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -15409,12 +15409,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8660</t>
+          <t>8413</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20568</t>
+          <t>19825</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -15424,12 +15424,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -15444,12 +15444,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7892</t>
+          <t>8319</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>19431</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -15459,12 +15459,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -15479,12 +15479,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>18870</t>
+          <t>19200</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>35342</t>
+          <t>34471</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -15494,12 +15494,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>11,73%</t>
         </is>
       </c>
     </row>
@@ -15522,12 +15522,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>90706</t>
+          <t>89388</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>105051</t>
+          <t>104170</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -15537,12 +15537,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>84,08%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -15557,12 +15557,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>134213</t>
+          <t>133049</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>148455</t>
+          <t>148396</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -15572,12 +15572,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>78,71%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>87,82%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -15592,12 +15592,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>228645</t>
+          <t>229173</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>248776</t>
+          <t>249580</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -15607,12 +15607,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>77,77%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>84,89%</t>
         </is>
       </c>
     </row>
@@ -15752,12 +15752,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9723</t>
+          <t>10292</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22932</t>
+          <t>22763</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -15767,12 +15767,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -15787,12 +15787,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>8440</t>
+          <t>8265</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -15802,12 +15802,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -15822,12 +15822,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>13896</t>
+          <t>13528</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>28694</t>
+          <t>28167</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -15837,12 +15837,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,34%</t>
         </is>
       </c>
     </row>
@@ -15865,12 +15865,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1229</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7546</t>
+          <t>6864</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -15880,12 +15880,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -15935,12 +15935,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>7331</t>
+          <t>7152</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -15950,12 +15950,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -16091,12 +16091,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>911</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>6484</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -16106,12 +16106,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>3206</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -16146,7 +16146,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -16161,12 +16161,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>7603</t>
+          <t>7206</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -16176,12 +16176,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -16204,12 +16204,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7390</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -16219,12 +16219,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -16244,7 +16244,7 @@
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>3079</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -16259,7 +16259,7 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -16274,12 +16274,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>8824</t>
+          <t>8611</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -16289,12 +16289,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -16317,12 +16317,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>664</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>5672</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -16332,12 +16332,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -16352,12 +16352,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>1116</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>8049</t>
+          <t>7845</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -16367,12 +16367,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -16387,12 +16387,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>10995</t>
+          <t>11594</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -16402,12 +16402,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,55%</t>
         </is>
       </c>
     </row>
@@ -16430,12 +16430,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>60208</t>
+          <t>60585</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>74997</t>
+          <t>74709</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -16445,12 +16445,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>63,01%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -16465,12 +16465,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>42780</t>
+          <t>43333</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>51830</t>
+          <t>51959</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -16480,12 +16480,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>75,49%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -16500,12 +16500,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>107350</t>
+          <t>107859</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>124969</t>
+          <t>125157</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -16515,12 +16515,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>69,91%</t>
+          <t>70,24%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>81,38%</t>
+          <t>81,51%</t>
         </is>
       </c>
     </row>
@@ -16660,12 +16660,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>17843</t>
+          <t>17521</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>31305</t>
+          <t>31177</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -16675,12 +16675,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -16695,12 +16695,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>24930</t>
+          <t>25047</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>42520</t>
+          <t>41785</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -16710,12 +16710,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -16730,12 +16730,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>46482</t>
+          <t>46595</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>68888</t>
+          <t>68896</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -16745,12 +16745,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>21,45%</t>
         </is>
       </c>
     </row>
@@ -16773,12 +16773,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3137</t>
+          <t>2864</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10602</t>
+          <t>10547</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -16788,12 +16788,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -16808,12 +16808,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3730</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>11280</t>
+          <t>10733</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -16823,12 +16823,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -16843,12 +16843,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>8306</t>
+          <t>8371</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>18098</t>
+          <t>18355</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -16858,12 +16858,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,71%</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -16941,7 +16941,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1792</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -16976,7 +16976,7 @@
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -16999,12 +16999,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>7333</t>
+          <t>7074</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>16688</t>
+          <t>16738</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -17014,12 +17014,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -17034,12 +17034,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>8960</t>
+          <t>8912</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -17049,12 +17049,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -17069,12 +17069,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>10708</t>
+          <t>10483</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>22197</t>
+          <t>22324</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -17084,12 +17084,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -17112,12 +17112,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>9786</t>
+          <t>9070</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>32614</t>
+          <t>31300</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -17127,12 +17127,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -17147,12 +17147,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>13222</t>
+          <t>14572</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -17167,7 +17167,7 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -17182,12 +17182,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>12999</t>
+          <t>12467</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>38109</t>
+          <t>38556</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -17197,12 +17197,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>12,0%</t>
         </is>
       </c>
     </row>
@@ -17225,12 +17225,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>9921</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -17240,12 +17240,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -17260,12 +17260,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>4011</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>12701</t>
+          <t>12966</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -17275,12 +17275,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -17295,12 +17295,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>8750</t>
+          <t>8961</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>18786</t>
+          <t>19575</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -17310,12 +17310,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>6,09%</t>
         </is>
       </c>
     </row>
@@ -17338,12 +17338,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>87055</t>
+          <t>87083</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>109316</t>
+          <t>108612</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -17353,12 +17353,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>53,62%</t>
+          <t>53,64%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>67,34%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -17373,12 +17373,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>92446</t>
+          <t>91454</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>112318</t>
+          <t>111079</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -17388,12 +17388,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>58,18%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>69,9%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -17408,12 +17408,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>186206</t>
+          <t>185657</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>215683</t>
+          <t>215008</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -17423,12 +17423,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>67,14%</t>
+          <t>66,93%</t>
         </is>
       </c>
     </row>
@@ -17568,12 +17568,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>7201</t>
+          <t>6568</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>16235</t>
+          <t>15594</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -17583,12 +17583,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -17603,12 +17603,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>19760</t>
+          <t>19653</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>35111</t>
+          <t>35101</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -17618,12 +17618,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -17638,12 +17638,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>28815</t>
+          <t>29452</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>46530</t>
+          <t>47265</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -17653,12 +17653,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>31,9%</t>
         </is>
       </c>
     </row>
@@ -17681,12 +17681,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>2839</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>10951</t>
+          <t>10218</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -17696,12 +17696,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -17716,12 +17716,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>9413</t>
+          <t>9299</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -17731,12 +17731,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -17751,12 +17751,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>6991</t>
+          <t>6881</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>16811</t>
+          <t>17097</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -17766,12 +17766,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -17799,7 +17799,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -17814,7 +17814,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>2354</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -17849,7 +17849,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -17869,7 +17869,7 @@
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -17884,7 +17884,7 @@
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -17907,12 +17907,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8065</t>
+          <t>8310</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -17922,12 +17922,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -17942,12 +17942,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>8578</t>
+          <t>8449</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -17957,12 +17957,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -17977,12 +17977,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>13909</t>
+          <t>13304</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -17997,7 +17997,7 @@
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>8,98%</t>
         </is>
       </c>
     </row>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>11726</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -18035,12 +18035,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -18055,12 +18055,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>2624</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>14530</t>
+          <t>13530</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -18070,12 +18070,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -18090,12 +18090,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>5579</t>
+          <t>5799</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>20418</t>
+          <t>21909</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -18105,12 +18105,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>14,79%</t>
         </is>
       </c>
     </row>
@@ -18133,12 +18133,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>423</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>4598</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -18148,12 +18148,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -18168,12 +18168,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>330</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -18188,7 +18188,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -18203,12 +18203,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>6387</t>
+          <t>6527</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -18218,12 +18218,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -18246,12 +18246,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>19490</t>
+          <t>20332</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>32150</t>
+          <t>31724</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -18261,12 +18261,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>59,86%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -18281,12 +18281,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>42624</t>
+          <t>41472</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>59401</t>
+          <t>58354</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -18296,12 +18296,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>62,9%</t>
+          <t>61,79%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -18316,12 +18316,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>67099</t>
+          <t>66528</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>87030</t>
+          <t>87107</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -18331,12 +18331,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>58,74%</t>
+          <t>58,8%</t>
         </is>
       </c>
     </row>
@@ -18476,12 +18476,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>872</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>5103</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -18491,12 +18491,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -18511,12 +18511,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>8912</t>
+          <t>8095</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -18526,12 +18526,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -18546,12 +18546,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>11309</t>
+          <t>11665</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -18561,12 +18561,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,68%</t>
         </is>
       </c>
     </row>
@@ -18589,12 +18589,12 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -18604,12 +18604,12 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
@@ -18624,12 +18624,12 @@
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>5704</t>
+          <t>5428</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -18639,12 +18639,12 @@
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
@@ -18659,12 +18659,12 @@
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>6026</t>
+          <t>6087</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -18674,12 +18674,12 @@
       </c>
       <c r="V45" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="W45" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,09%</t>
         </is>
       </c>
     </row>
@@ -18820,7 +18820,7 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -18850,12 +18850,12 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>2289</t>
+          <t>2293</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>9403</t>
+          <t>9260</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -18865,12 +18865,12 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -18885,12 +18885,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>2586</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>9854</t>
+          <t>9845</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
@@ -18928,12 +18928,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>960</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>10305</t>
+          <t>10514</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -18943,12 +18943,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -18963,12 +18963,12 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>2863</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>10152</t>
+          <t>10068</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -18978,12 +18978,12 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -18998,12 +18998,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5472</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>18921</t>
+          <t>17171</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -19013,12 +19013,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>17,19%</t>
         </is>
       </c>
     </row>
@@ -19046,7 +19046,7 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>1371</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -19061,7 +19061,7 @@
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -19076,12 +19076,12 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>8748</t>
+          <t>8689</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -19091,12 +19091,12 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -19111,12 +19111,12 @@
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>8782</t>
+          <t>9199</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
@@ -19126,12 +19126,12 @@
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>9,21%</t>
         </is>
       </c>
     </row>
@@ -19154,12 +19154,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>23632</t>
+          <t>23483</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>32582</t>
+          <t>32697</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -19169,12 +19169,12 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>64,66%</t>
+          <t>64,25%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -19189,12 +19189,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>34625</t>
+          <t>35944</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>47057</t>
+          <t>47134</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -19204,12 +19204,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>54,66%</t>
+          <t>56,74%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>74,28%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -19224,12 +19224,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>63200</t>
+          <t>62916</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>77984</t>
+          <t>77172</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -19239,12 +19239,12 @@
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>62,98%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>78,06%</t>
+          <t>77,25%</t>
         </is>
       </c>
     </row>
@@ -19384,12 +19384,12 @@
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>65992</t>
+          <t>67027</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>93228</t>
+          <t>94106</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -19399,12 +19399,12 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr">
@@ -19419,12 +19419,12 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>79368</t>
+          <t>79268</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>109586</t>
+          <t>109512</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -19434,12 +19434,12 @@
       </c>
       <c r="O52" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
@@ -19454,12 +19454,12 @@
       </c>
       <c r="S52" s="2" t="inlineStr">
         <is>
-          <t>153870</t>
+          <t>152288</t>
         </is>
       </c>
       <c r="T52" s="2" t="inlineStr">
         <is>
-          <t>194467</t>
+          <t>193347</t>
         </is>
       </c>
       <c r="U52" s="2" t="inlineStr">
@@ -19469,12 +19469,12 @@
       </c>
       <c r="V52" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="W52" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,5%</t>
         </is>
       </c>
     </row>
@@ -19497,12 +19497,12 @@
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>11098</t>
+          <t>10556</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>24472</t>
+          <t>22975</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -19512,12 +19512,12 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
@@ -19532,12 +19532,12 @@
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>12295</t>
+          <t>12517</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>23346</t>
+          <t>23576</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -19547,12 +19547,12 @@
       </c>
       <c r="O53" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
@@ -19567,12 +19567,12 @@
       </c>
       <c r="S53" s="2" t="inlineStr">
         <is>
-          <t>27199</t>
+          <t>26374</t>
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr">
         <is>
-          <t>43953</t>
+          <t>43331</t>
         </is>
       </c>
       <c r="U53" s="2" t="inlineStr">
@@ -19582,12 +19582,12 @@
       </c>
       <c r="V53" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="W53" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,02%</t>
         </is>
       </c>
     </row>
@@ -19610,12 +19610,12 @@
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>670</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -19630,7 +19630,7 @@
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
@@ -19645,12 +19645,12 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>3395</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>11562</t>
+          <t>11315</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="O54" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -19680,12 +19680,12 @@
       </c>
       <c r="S54" s="2" t="inlineStr">
         <is>
-          <t>4514</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="T54" s="2" t="inlineStr">
         <is>
-          <t>13113</t>
+          <t>12831</t>
         </is>
       </c>
       <c r="U54" s="2" t="inlineStr">
@@ -19695,12 +19695,12 @@
       </c>
       <c r="V54" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="W54" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -19723,12 +19723,12 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>16355</t>
+          <t>16629</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>30257</t>
+          <t>29892</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
@@ -19738,12 +19738,12 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr">
@@ -19758,12 +19758,12 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>12238</t>
+          <t>12702</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>25284</t>
+          <t>26270</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -19773,12 +19773,12 @@
       </c>
       <c r="O55" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -19793,12 +19793,12 @@
       </c>
       <c r="S55" s="2" t="inlineStr">
         <is>
-          <t>32278</t>
+          <t>32524</t>
         </is>
       </c>
       <c r="T55" s="2" t="inlineStr">
         <is>
-          <t>52108</t>
+          <t>51272</t>
         </is>
       </c>
       <c r="U55" s="2" t="inlineStr">
@@ -19808,12 +19808,12 @@
       </c>
       <c r="V55" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="W55" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -19836,12 +19836,12 @@
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>19707</t>
+          <t>20099</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>47502</t>
+          <t>48921</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -19851,12 +19851,12 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
@@ -19871,12 +19871,12 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>12497</t>
+          <t>12308</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>30667</t>
+          <t>29702</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -19886,12 +19886,12 @@
       </c>
       <c r="O56" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -19906,12 +19906,12 @@
       </c>
       <c r="S56" s="2" t="inlineStr">
         <is>
-          <t>37437</t>
+          <t>36949</t>
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr">
         <is>
-          <t>70552</t>
+          <t>70620</t>
         </is>
       </c>
       <c r="U56" s="2" t="inlineStr">
@@ -19921,12 +19921,12 @@
       </c>
       <c r="V56" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W56" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -19949,12 +19949,12 @@
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>42398</t>
+          <t>43054</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>65021</t>
+          <t>66389</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
@@ -19964,12 +19964,12 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
@@ -19984,12 +19984,12 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>42239</t>
+          <t>43030</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>65577</t>
+          <t>67221</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -19999,12 +19999,12 @@
       </c>
       <c r="O57" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -20019,12 +20019,12 @@
       </c>
       <c r="S57" s="2" t="inlineStr">
         <is>
-          <t>91982</t>
+          <t>92010</t>
         </is>
       </c>
       <c r="T57" s="2" t="inlineStr">
         <is>
-          <t>123144</t>
+          <t>122096</t>
         </is>
       </c>
       <c r="U57" s="2" t="inlineStr">
@@ -20039,7 +20039,7 @@
       </c>
       <c r="W57" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,52%</t>
         </is>
       </c>
     </row>
@@ -20062,12 +20062,12 @@
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>455636</t>
+          <t>453462</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>495010</t>
+          <t>494151</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
@@ -20077,12 +20077,12 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>67,07%</t>
+          <t>66,75%</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>72,87%</t>
+          <t>72,74%</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
@@ -20097,12 +20097,12 @@
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>526099</t>
+          <t>525553</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>566903</t>
+          <t>565504</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -20112,12 +20112,12 @@
       </c>
       <c r="O58" s="2" t="inlineStr">
         <is>
-          <t>69,85%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="S58" s="2" t="inlineStr">
         <is>
-          <t>992543</t>
+          <t>991613</t>
         </is>
       </c>
       <c r="T58" s="2" t="inlineStr">
         <is>
-          <t>1047648</t>
+          <t>1048948</t>
         </is>
       </c>
       <c r="U58" s="2" t="inlineStr">
@@ -20147,12 +20147,12 @@
       </c>
       <c r="V58" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>69,22%</t>
         </is>
       </c>
       <c r="W58" s="2" t="inlineStr">
         <is>
-          <t>73,13%</t>
+          <t>73,22%</t>
         </is>
       </c>
     </row>
